--- a/biology/Médecine/Ovariectomie/Ovariectomie.xlsx
+++ b/biology/Médecine/Ovariectomie/Ovariectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ovariectomie, est l'ablation chirurgicale des ovaires. C'est l'équivalent de l'oophorectomie. Elle se pratique aussi bien chez les humains à des fins médicales que chez les animaux dans un but de stérilisation et de contrôle des populations. L'ovariectomie est à distinguer de l'ovariohystérectomie, qui consiste à retirer à la fois les ovaires et l'utérus.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces concernées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ovariectomie peut être pratiquée chez l'humain[1]. Elle est également pratiquée sur des chats[2], des chiens[2], des lapins et rongeurs[3], des juments[4] et des vaches[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ovariectomie peut être pratiquée chez l'humain. Elle est également pratiquée sur des chats, des chiens, des lapins et rongeurs, des juments et des vaches
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première ovariectomie a été pratiquée le jour de Noël 1809 par Ephraim McDowell qui réalisa une laparatomie sur une femme souffrant d'un énorme kyste de l'ovaire suffocant, transgressant ainsi le principe moral « Nul ne parviendra à exciser les tumeurs internes quelles que soient leurs origines » puisque la « limite imposée par Dieu » interdisait de franchir le péritoine (seules l’orthopédie et la césarienne étaient admises)[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première ovariectomie a été pratiquée le jour de Noël 1809 par Ephraim McDowell qui réalisa une laparatomie sur une femme souffrant d'un énorme kyste de l'ovaire suffocant, transgressant ainsi le principe moral « Nul ne parviendra à exciser les tumeurs internes quelles que soient leurs origines » puisque la « limite imposée par Dieu » interdisait de franchir le péritoine (seules l’orthopédie et la césarienne étaient admises).
 Dès 1862, Eugène Koeberlé fut l'un des tout premiers à en pratiquer avec succès.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Indications médicales
 Indications zootechniques</t>
@@ -605,7 +623,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Conséquences inter-spécifiques
 - stérilité
